--- a/artfynd/A 27548-2025 artfynd.xlsx
+++ b/artfynd/A 27548-2025 artfynd.xlsx
@@ -1713,7 +1713,7 @@
         <v>125981787</v>
       </c>
       <c r="B12" t="n">
-        <v>56849</v>
+        <v>57073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
